--- a/full_data_tests_results_original_bsize.xlsx
+++ b/full_data_tests_results_original_bsize.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\COMP\COMP551\COMP551_neuro-gang\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\COMP\COMP551\Exploring_papers\COMP551_reproductibility_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387C239C-5419-4439-B8F9-8B6E968264A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A9F80-A9DF-4847-B7D0-B2F27838EBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -643,13 +643,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Ablation</a:t>
+              <a:t>Ablation tests</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> tests</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -666,7 +661,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1645,7 +1640,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1659,13 +1654,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of dimensions</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> of dimensions</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1682,7 +1672,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1720,7 +1710,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1767,7 +1757,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1781,11 +1771,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Runtime</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> (s)</a:t>
+                  <a:t>Runtime (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1803,7 +1789,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1841,7 +1827,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1883,7 +1869,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1915,12 +1901,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1930,7 +1911,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1959,7 +1940,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1991,7 +1972,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2970,7 +2951,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3002,7 +2983,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3040,7 +3021,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3087,7 +3068,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3119,7 +3100,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3157,7 +3138,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3199,7 +3180,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3231,12 +3212,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3246,7 +3222,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4381,7 +4357,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A7CE1908-6C2C-4D67-AA79-D6137DB832B0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4392,7 +4368,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669915" cy="6288665"/>
+    <xdr:ext cx="8664503" cy="6288665"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4425,7 +4401,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669915" cy="6288665"/>
+    <xdr:ext cx="8673830" cy="6297646"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
